--- a/modelos_stetson.xlsx
+++ b/modelos_stetson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
         <v>298.11</v>
       </c>
       <c r="G2" t="n">
-        <v>29512.89</v>
+        <v>18780.93</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -514,12 +514,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fonte automotiva stetsom infinite 60a am</t>
+          <t>módulo amplificador barra stetsom ex3000 4 ohm black edition cor preto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,29 +533,29 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>390.06</v>
+        <v>622.11</v>
       </c>
       <c r="G3" t="n">
-        <v>23793.66</v>
+        <v>6221.1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>LOI BRASIL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>processador crossover stetsom stx 2436 b</t>
+          <t>mesa de som automotivo stetsom 12v 2 can</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>257.61</v>
+        <v>237.99</v>
       </c>
       <c r="G4" t="n">
-        <v>11592.45</v>
+        <v>4997.79</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,12 +586,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
+          <t>amplificador para carros, picapes e suvs stetsom high line hl 800.4 clase d com 4 canales e 900w preto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>193.04</v>
+        <v>499</v>
       </c>
       <c r="G5" t="n">
-        <v>9845.040000000001</v>
+        <v>4491</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -622,12 +622,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>modulo stetsom amplificador 3000w rms ex</t>
+          <t>módulo amplificador stetsom ex3000 black 1canal 1ohm 3000rms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>640.79</v>
+        <v>604.3099999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>7689.48</v>
+        <v>4230.17</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,12 +658,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 4 ohm black edition cor preto</t>
+          <t>fonte stetsom automotiva 120a com voltimetro bivolt sci cor preto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,29 +677,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>699</v>
+        <v>557.14</v>
       </c>
       <c r="G7" t="n">
-        <v>6990</v>
+        <v>3899.98</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOI BRASIL</t>
+          <t>ZARI PARTS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mesa de som automotivo stetsom 12v 2 can</t>
+          <t>módulo amplificador stetsom vulcan 8000w rms 1 canal 2 ohms cor preto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>237.99</v>
+        <v>1728</v>
       </c>
       <c r="G8" t="n">
-        <v>5711.76</v>
+        <v>3456</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -730,12 +730,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fonte carregador stetsom 200a scs display digital bivolt cor preto</t>
+          <t>modulo stetsom amplificador 3000w rms ex</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,29 +749,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>711.2</v>
+        <v>640.79</v>
       </c>
       <c r="G9" t="n">
-        <v>4978.4</v>
+        <v>3203.95</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 8000w rms 1 canal 2 ohms cor preto</t>
+          <t>fonte carregador stetsom 200a scs display digital bivolt cor preto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -785,29 +785,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>1609</v>
+        <v>711.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4827</v>
+        <v>2844.8</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>processador stx2448 floating para rádio</t>
+          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,17 +821,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>368.9</v>
+        <v>375</v>
       </c>
       <c r="G11" t="n">
-        <v>4426.8</v>
+        <v>2625</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>processador de áudio digital stetsom stx-2848 mais vendido 12v</t>
+          <t>processador stx2448 floating para rádio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>314.01</v>
+        <v>368.9</v>
       </c>
       <c r="G12" t="n">
-        <v>4396.14</v>
+        <v>2582.3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -874,12 +874,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XBOXSCOMPRO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>modulo stetsom vulcan 12000w rms 1 canal 1 ohms cor preto</t>
+          <t>fonte carregador som stetsom infinity black 150a bivolt cor preto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2149</v>
+        <v>621.21</v>
       </c>
       <c r="G13" t="n">
-        <v>4298</v>
+        <v>2484.84</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 150A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fonte automotiva digital stetsom 50a amperes carregador cor preto</t>
+          <t>módulo amplificador stetsom vulcan 3000 1c 3000w rms 4 ohms cor preto</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -929,29 +929,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>311.41</v>
+        <v>823.41</v>
       </c>
       <c r="G14" t="n">
-        <v>3736.92</v>
+        <v>2470.23</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FONTE 50A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>processador crossover de áudio digital s</t>
+          <t>módulo amplicador stetsom vulcan 3000w rms 1 canal 2 ohms</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>299</v>
+        <v>818.01</v>
       </c>
       <c r="G15" t="n">
-        <v>3588</v>
+        <v>2454.03</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -982,12 +982,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>RODRIGUEZ_MORENO20190629195607</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>amplificador modulo stetsom 3000w black</t>
+          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>594.5700000000001</v>
+        <v>198.38</v>
       </c>
       <c r="G16" t="n">
-        <v>3567.42</v>
+        <v>2380.56</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1018,12 +1018,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>CESAR_AUGM20240920055625</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>módulo amplicador stetsom vulcan 3000w rms 1 canal 2 ohms</t>
+          <t>módulo amplificador stetsom vulcan 3000 1c 3000w rms 4 ohms cor preto</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>818.01</v>
+        <v>761</v>
       </c>
       <c r="G17" t="n">
-        <v>3272.04</v>
+        <v>2283</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARAGOS DIST.</t>
+          <t>GUELMAN790320240919165257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>barra stetsom digital vulcan 3000w rms m</t>
+          <t>módulo amplificador stetsom high line hl1200.4 4 canais 2 ohms bridge 4 ohms 1200w</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>785.99</v>
+        <v>702.21</v>
       </c>
       <c r="G18" t="n">
-        <v>3143.96</v>
+        <v>2106.63</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1090,12 +1090,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GEEK2GETHER2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>modulo amplificador stetson vulcan 8000w rms 1 ohm 1 canal cor preto</t>
+          <t>módulo para caixa bob stetsom 1200 wrms</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>1564.62</v>
+        <v>679.96</v>
       </c>
       <c r="G19" t="n">
-        <v>3129.24</v>
+        <v>2039.88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1126,12 +1126,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GLOBAL ACESSÓRIOS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>modulo amplificador digital stetsom vulcan 5000w 1 ohm</t>
+          <t>processador de áudio digital stetsom stx-2848 mais vendido 12v</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>1467</v>
+        <v>314.01</v>
       </c>
       <c r="G20" t="n">
-        <v>2934</v>
+        <v>1884.06</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1162,12 +1162,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CESAR_AUGM20240920055625</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fonte stetsom automotiva 120a com voltimetro bivolt sci cor preto</t>
+          <t>módulo amplificador barra stetsom ex3000 2 ohm black edition cor preto</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1181,29 +1181,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>557.14</v>
+        <v>622</v>
       </c>
       <c r="G21" t="n">
-        <v>2785.7</v>
+        <v>1866</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>módulo stetsom ex 3000 black edition - 1</t>
+          <t>processador áudio digital equalizador st</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>674.49</v>
+        <v>308.99</v>
       </c>
       <c r="G22" t="n">
-        <v>2697.96</v>
+        <v>1853.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1234,12 +1234,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CARAGOS DIST.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fonte automotiva carregador stetsom 70a digital bivolt cor preto</t>
+          <t>modulo amplificador stetsom 900wrms hl-8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1253,29 +1253,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>432.46</v>
+        <v>564.99</v>
       </c>
       <c r="G23" t="n">
-        <v>2594.76</v>
+        <v>1694.97</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LOI BRASIL</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 4 ohm black edition cor preto</t>
+          <t>modulo amplificador digital stetsom vulc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>630.9</v>
+        <v>1590</v>
       </c>
       <c r="G24" t="n">
-        <v>2523.6</v>
+        <v>1590</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1306,12 +1306,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RAR3050720240917203717</t>
+          <t>BK SOUND</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom ironline ir400.1 400w rms 2 ohms</t>
+          <t>processador de áudio stetsom stx2448 com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="G25" t="n">
-        <v>2508</v>
+        <v>1470</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1342,12 +1342,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>CAPITAL SOUND</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>amplificador para carros, picapes e suvs stetsom high line hl 800.4 clase d com 4 canales e 900w preto</t>
+          <t>modulo amplificador digital stetsom vulcan 5000w 1 ohm</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>499</v>
+        <v>1450.99</v>
       </c>
       <c r="G26" t="n">
-        <v>2495</v>
+        <v>1450.99</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1378,12 +1378,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fonte carregador som stetsom infinity black 150a bivolt cor preto</t>
+          <t>módulo amplificador stetsom vulcan 5000w rms  2 ohms digital</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1397,29 +1397,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>621.21</v>
+        <v>1450.99</v>
       </c>
       <c r="G27" t="n">
-        <v>2484.84</v>
+        <v>1450.99</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FONTE 150A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BK SOUND</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>processador áudio digital equalizador st</t>
+          <t>módulo amplificador stetsom vulcan 5000w rms  2 ohms digital</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>308.99</v>
+        <v>1400</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.92</v>
+        <v>1400</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1450,12 +1450,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBAL ACESSÓRIOS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>modulo stetsom force extreme 1 canal 180.000w rms amplificad cor preto</t>
+          <t>stetsom stm 0803 stm mesa som mesa som automotivo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1469,13 +1469,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>2461</v>
+        <v>328.9</v>
       </c>
       <c r="G29" t="n">
-        <v>2461</v>
+        <v>1315.6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1486,12 +1486,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>THIESCA10020240829200849</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
+          <t>play stetsom hl400.4 dsplay hl 400 x4 100w rms usb bob cor dsp play 400x4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>257.61</v>
+        <v>425.9</v>
       </c>
       <c r="G30" t="n">
-        <v>2318.49</v>
+        <v>1277.7</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fonte stetsom automotiva 120a com voltimetro bivolt sci cor preto</t>
+          <t>processador áudio digital stetsom stx 24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1544,26 +1544,26 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>558.79</v>
+        <v>309</v>
       </c>
       <c r="G31" t="n">
-        <v>2235.16</v>
+        <v>1236</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom db800.1 2 ohms grave poderoso cor preto</t>
+          <t>modulo amplificador stetsom ex 3000 eq 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1577,13 +1577,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>444.99</v>
+        <v>615.65</v>
       </c>
       <c r="G32" t="n">
-        <v>2224.95</v>
+        <v>1231.3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1594,12 +1594,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>XBOXSCOMPRO</t>
+          <t>GEEK2GETHER2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>modulo stetsom vulcan 12000w rms 1 canal 1 ohms cor preto</t>
+          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>2139</v>
+        <v>194.02</v>
       </c>
       <c r="G33" t="n">
-        <v>2139</v>
+        <v>1164.12</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1630,12 +1630,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BK SOUND</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>módulo para caixa bob stetsom 1200 wrms</t>
+          <t>mesa de som ganhos e mic stm0803 stetsom</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1652,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>679.96</v>
+        <v>364</v>
       </c>
       <c r="G34" t="n">
-        <v>2039.88</v>
+        <v>1092</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1666,12 +1666,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BETACARSS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
+          <t>módulo potencia digital stetsom ir800.4 800 w rms 4 canais cor preto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1685,29 +1685,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>390.06</v>
+        <v>544</v>
       </c>
       <c r="G35" t="n">
-        <v>1950.3</v>
+        <v>1088</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ZARI PARTS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fonte stetsom automotiva 120a com voltimetro bivolt sci cor preto</t>
+          <t>módulo amplificador stetsom hl 2000.4 2 ohms 4 canais</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1721,29 +1721,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>581.16</v>
+        <v>1049</v>
       </c>
       <c r="G36" t="n">
-        <v>1743.48</v>
+        <v>1049</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 8000w</t>
+          <t>processador áudio digital stetsom stx244</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>1728</v>
+        <v>349</v>
       </c>
       <c r="G37" t="n">
-        <v>1728</v>
+        <v>1047</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1774,12 +1774,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BETACARSS</t>
+          <t>ICOROMAA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>modulo amplificador stetson vulcan 8000w rms 1 ohm 1 canal cor preto</t>
+          <t>controle longa distancia stetsom sx1 universal 500m cor azul</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1793,29 +1793,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>1715</v>
+        <v>61.26</v>
       </c>
       <c r="G38" t="n">
-        <v>1715</v>
+        <v>1041.42</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ALETA ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>amplificador modulo stetsom ir 160.2 ir 160 watts 2 ohms cor preto</t>
+          <t>novo processador crossover digital stets</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>154.86</v>
+        <v>345</v>
       </c>
       <c r="G39" t="n">
-        <v>1703.46</v>
+        <v>1035</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1846,12 +1846,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mesa de som automotivo stetsom stm0602 2 c 12v 4 eq band</t>
+          <t>módulo stetsom db3000 digital bass 2 ohm</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>282.58</v>
+        <v>938</v>
       </c>
       <c r="G40" t="n">
-        <v>1695.48</v>
+        <v>938</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1882,12 +1882,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GEEK2GETHER2</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 8000w rms 1 canal 2 ohms cor preto</t>
+          <t>fonte automotiva digital stetsom 50a amperes carregador cor preto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1901,29 +1901,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>1658.07</v>
+        <v>311.41</v>
       </c>
       <c r="G41" t="n">
-        <v>1658.07</v>
+        <v>934.23</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000 1c 3000w rms 4 ohms cor preto</t>
+          <t>processador de áudio digital equalizador stetsom stx 2448 12v</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1937,13 +1937,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>823.41</v>
+        <v>308.99</v>
       </c>
       <c r="G42" t="n">
-        <v>1646.82</v>
+        <v>926.97</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1954,12 +1954,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>stetsom stm 0803 stm mesa som mesa som automotivo</t>
+          <t>controle longa distância stetsom sx1 uni</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1973,29 +1973,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>328.9</v>
+        <v>57.49</v>
       </c>
       <c r="G43" t="n">
-        <v>1644.5</v>
+        <v>919.84</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BETACARSS</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>módulo potencia digital stetsom ir800.4 800 w rms 4 canais cor preto</t>
+          <t>processador equalizador crossover stetso</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2012,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>535</v>
+        <v>303.04</v>
       </c>
       <c r="G44" t="n">
-        <v>1605</v>
+        <v>909.12</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2026,12 +2026,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
+          <t>processador stetsom stx-2448 radical som</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>391.6</v>
+        <v>299</v>
       </c>
       <c r="G45" t="n">
-        <v>1566.4</v>
+        <v>897</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CONFINIT SA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
+          <t>fonte automotiva digital stetsom 50a amperes carregador cor preto</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2081,29 +2081,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>379.39</v>
+        <v>295.39</v>
       </c>
       <c r="G46" t="n">
-        <v>1517.56</v>
+        <v>886.17</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom hl 800.4 800w rms 2 ohm 4 canais</t>
+          <t>mesa de som automotivo stetsom stm0602 2 c 12v 4 eq band</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2120,10 +2120,10 @@
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>494.39</v>
+        <v>282.58</v>
       </c>
       <c r="G47" t="n">
-        <v>1483.17</v>
+        <v>847.74</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2134,12 +2134,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BK SOUND</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 5000w rms  2 ohms digital</t>
+          <t>módulo amplificador stetsom vulcan 3000w rms 1 canal 1 ohm cor preto</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2156,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1479</v>
+        <v>819.79</v>
       </c>
       <c r="G48" t="n">
-        <v>1479</v>
+        <v>819.79</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2170,12 +2170,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TS DISTRIBUIDORA SOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 5000</t>
+          <t>módulo stetsom 3000w vulcan 1 canal 2 oh</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2192,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1473.9</v>
+        <v>818.01</v>
       </c>
       <c r="G49" t="n">
-        <v>1473.9</v>
+        <v>818.01</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2206,12 +2206,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 5000w rms  2 ohms digital</t>
+          <t>controle longa distancia stetsom sx1 universal vermelho</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2225,29 +2225,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>1467</v>
+        <v>57.99</v>
       </c>
       <c r="G50" t="n">
-        <v>1467</v>
+        <v>811.86</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GLOBAL ACESSÓRIOS</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 5000w rms  2 ohms digital</t>
+          <t>controle longa distância stetsom sx2 500 metros cores cor branco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2261,29 +2261,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>1460</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>1460</v>
+        <v>791.91</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>modulo stetsom 500w db500.1 2 ohms bass grave e subgrave cor preto</t>
+          <t>módulo amplificador stetsom vulcan 3000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>364.81</v>
+        <v>785.99</v>
       </c>
       <c r="G52" t="n">
-        <v>1459.24</v>
+        <v>785.99</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2314,12 +2314,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>SOUND STORE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mesa de som automotiva stetsom stm 1206</t>
+          <t>módulo amplificador stetsom vulcan 3000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>479.85</v>
+        <v>785.3099999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>1439.55</v>
+        <v>785.3099999999999</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2350,12 +2350,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>voltimetro mini stetsom vt digital autom</t>
+          <t>modulo stetsom 3000 vulcan 2 4 1 ohms so</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2369,13 +2369,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>44.79</v>
+        <v>782.3</v>
       </c>
       <c r="G54" t="n">
-        <v>1433.28</v>
+        <v>782.3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fonte stetsom chv500 carregador alta voltagem bivolt high v</t>
+          <t>processador áudio stetsom stx 2436bt seq</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>354</v>
+        <v>258.4</v>
       </c>
       <c r="G55" t="n">
-        <v>1416</v>
+        <v>775.2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>processador stx 2448 floating equalizado</t>
+          <t>4 strobo stetsom led rgb automotivo blue</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>349</v>
+        <v>110.2</v>
       </c>
       <c r="G56" t="n">
-        <v>1396</v>
+        <v>771.4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2458,12 +2458,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 5000w rms  2 ohms digital</t>
+          <t>módulo stetsom iron line ir 400.4 4 cana</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>1389</v>
+        <v>251.94</v>
       </c>
       <c r="G57" t="n">
-        <v>1389</v>
+        <v>755.8200000000001</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2494,12 +2494,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>processador de áudio digital stetsom stx-2848 mais vendido 12v</t>
+          <t>processador de audio stetsom stx2848 dig</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2513,13 +2513,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>347</v>
+        <v>376.2</v>
       </c>
       <c r="G58" t="n">
-        <v>1388</v>
+        <v>752.4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2530,12 +2530,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>RAR3217120240917221441</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 2000w</t>
+          <t>amplificador stetsom export line ex1600e</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>684.41</v>
+        <v>725.9</v>
       </c>
       <c r="G59" t="n">
-        <v>1368.82</v>
+        <v>725.9</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2566,12 +2566,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 4 ohm black edition cor preto</t>
+          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>674.99</v>
+        <v>240</v>
       </c>
       <c r="G60" t="n">
-        <v>1349.98</v>
+        <v>720</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2602,12 +2602,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4 strobo stetsom led rgb automotivo blue</t>
+          <t>módulo amplificador stetsom hl400.4 400w potência 4 canais bridge high line</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2621,13 +2621,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>110.2</v>
+        <v>237.4</v>
       </c>
       <c r="G61" t="n">
-        <v>1322.4</v>
+        <v>712.2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2638,12 +2638,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 uni</t>
+          <t>novo processador crossover digital stets</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2657,29 +2657,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="G62" t="n">
-        <v>1300</v>
+        <v>698</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom ex3000 4 ohm</t>
+          <t>fonte carregador stetsom 200a scs display digital bivolt cor preto</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2693,29 +2693,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>629.91</v>
+        <v>685.3</v>
       </c>
       <c r="G63" t="n">
-        <v>1259.82</v>
+        <v>685.3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>modulo 1200 stetsom amplificador digital</t>
+          <t>módulo amplificador stetsom vulcan 2000w</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2729,13 +2729,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>617.01</v>
+        <v>684.41</v>
       </c>
       <c r="G64" t="n">
-        <v>1234.02</v>
+        <v>684.41</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2746,12 +2746,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>EDWIN_CHAN978</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fonte stetsom automotiva 120a com voltim</t>
+          <t>módulo de som automotivo stetsom vulcan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2765,29 +2765,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>609.9</v>
+        <v>684.4</v>
       </c>
       <c r="G65" t="n">
-        <v>1219.8</v>
+        <v>684.4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GUELMAN790320240919165257</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>fonte automotiva digital stetsom 50a amperes carregador cor preto</t>
+          <t>modulo amplificador stetsom vulcan 2000w</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2801,29 +2801,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>296.37</v>
+        <v>681.73</v>
       </c>
       <c r="G66" t="n">
-        <v>1185.48</v>
+        <v>681.73</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FONTE 50A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JOLIVEIRA4233</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 2 ohm black edition cor preto</t>
+          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2837,13 +2837,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>585</v>
+        <v>216.9</v>
       </c>
       <c r="G67" t="n">
-        <v>1170</v>
+        <v>650.7</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2854,12 +2854,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>processador áudio digital stetsom stx244</t>
+          <t>módulo amplificador stetsom ex3000 2 ohm</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2873,13 +2873,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>369</v>
+        <v>650.5599999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>1107</v>
+        <v>650.5599999999999</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mesa de som ganhos e mic stm0803 stetsom</t>
+          <t>módulo stetsom vulcan 1200w rms 2 ohm 12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>364</v>
+        <v>639</v>
       </c>
       <c r="G69" t="n">
-        <v>1092</v>
+        <v>639</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2926,12 +2926,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adaptador conversor stetsom st6000 aparelho som fio pra rca</t>
+          <t>módulo amplificador stetsom vulcan 2000w rms 1 canal 2 ohms cor preto</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2945,13 +2945,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>47.16</v>
+        <v>637</v>
       </c>
       <c r="G70" t="n">
-        <v>1084.68</v>
+        <v>637</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2962,12 +2962,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FORTALEZA DIST. SOM</t>
+          <t>LOI BRASIL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>controle longa distância stetsom sx2 500 metros cores cor azul</t>
+          <t>módulo amplificador barra stetsom ex3000 4 ohm black edition cor preto</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2981,29 +2981,29 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>89</v>
+        <v>630.9</v>
       </c>
       <c r="G71" t="n">
-        <v>1068</v>
+        <v>630.9</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>amplificador para carros, picapes e suvs stetsom high line hl 800.4 clase d com 4 canales e 900w preto</t>
+          <t>fonte automotiva digital stetsom 50a car</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3020,26 +3020,26 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>533.99</v>
+        <v>311.41</v>
       </c>
       <c r="G72" t="n">
-        <v>1067.98</v>
+        <v>622.8200000000001</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CESAR_AUGM20240920055625</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>processador áudio digital stetsom stx244</t>
+          <t>módulo amplificador barra stetsom ex3000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3053,13 +3053,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>349</v>
+        <v>622</v>
       </c>
       <c r="G73" t="n">
-        <v>1047</v>
+        <v>622</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3070,12 +3070,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>processador audio stetsom stx-2848 com s</t>
+          <t>amplificador modulo stetsom ir 160.2 ir</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3089,13 +3089,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>347</v>
+        <v>154.86</v>
       </c>
       <c r="G74" t="n">
-        <v>1041</v>
+        <v>619.4400000000001</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3106,12 +3106,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EDWIN_CHAN978</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mesa de som stetsom stm-1003 3 ch aux 12</t>
+          <t>modulo 1200 stetsom amplificador digital</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>517.5</v>
+        <v>617.01</v>
       </c>
       <c r="G75" t="n">
-        <v>1035</v>
+        <v>617.01</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3142,12 +3142,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YTRIUM SHOP</t>
+          <t>RADICALSOM 4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
+          <t>processador crossover c/ sequenciador st</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3161,13 +3161,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>249.99</v>
+        <v>308</v>
       </c>
       <c r="G76" t="n">
-        <v>999.96</v>
+        <v>616</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3178,12 +3178,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom db3000 digit</t>
+          <t>módulo automotivo potência stetsom hl800</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3200,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>968.5</v>
+        <v>607.5599999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>968.5</v>
+        <v>607.5599999999999</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3214,12 +3214,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NR DISTRIBUIDORA</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mesa de som automotivo stetsom stm1206 6 canais 4 eq band</t>
+          <t>modulo amplificador stetsom vulcan 1200</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>484</v>
+        <v>596.59</v>
       </c>
       <c r="G78" t="n">
-        <v>968</v>
+        <v>596.59</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3250,12 +3250,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ALTA ECOMMERCE 2</t>
+          <t>MEGALOJAPAULISTA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>amplificador stetsom db3000 3000w rms 1</t>
+          <t>modulo amplificador stetsom vulcan 1200</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3272,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>917.99</v>
+        <v>596.59</v>
       </c>
       <c r="G79" t="n">
-        <v>917.99</v>
+        <v>596.59</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3286,12 +3286,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MEGALOJAPAULISTA</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>amplificador stetsom db3000 3000w rms 2</t>
+          <t>conversor adaptador fio para rca anti ru</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3305,13 +3305,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>917.86</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>917.86</v>
+        <v>580.74</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3322,12 +3322,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>radical som stetsom processador 2448 stx</t>
+          <t>mesa de som automotivo stetsom 12v 2 can</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3341,13 +3341,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>304</v>
+        <v>277.77</v>
       </c>
       <c r="G81" t="n">
-        <v>912</v>
+        <v>555.54</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3358,12 +3358,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OESTE SOM</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>processador equalizador crossover stetso</t>
+          <t>módulo amplificador stetsom hl 800.4 800w rms 2 ohm 4 canais</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>303.04</v>
+        <v>555</v>
       </c>
       <c r="G82" t="n">
-        <v>909.12</v>
+        <v>555</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3394,12 +3394,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>EDWIN_CHAN978</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom bass db3000 3000w rms 2 ohms cor preto</t>
+          <t>módulo amplificador stetsom hl 800.4 wrm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3416,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>895</v>
+        <v>554.6</v>
       </c>
       <c r="G83" t="n">
-        <v>895</v>
+        <v>554.6</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4 strobo stetsom led rgb automotivo blue</t>
+          <t>fonte carregador stetsom 120a scs volt/a</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3449,29 +3449,29 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>127.2</v>
+        <v>550.91</v>
       </c>
       <c r="G84" t="n">
-        <v>890.4</v>
+        <v>550.91</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>CARAGOS DIST.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cabo rca som carro 5 metros 5m blindado stetsom prata 4mm</t>
+          <t>modulo amplificador stetsom 900wrms hl-8</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>68</v>
+        <v>534.99</v>
       </c>
       <c r="G85" t="n">
-        <v>884</v>
+        <v>534.99</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3502,12 +3502,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>TEM ONLINE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000w</t>
+          <t>módulo amplificador stetsom vulcan 1200w</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3524,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>880</v>
+        <v>534.71</v>
       </c>
       <c r="G86" t="n">
-        <v>880</v>
+        <v>534.71</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3538,12 +3538,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CARAGOS DIST.</t>
+          <t>ALTA ECOMMERCE 2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000w rms 1 canal 1 ohm cor preto</t>
+          <t>mesa de som stm1003 stetsom bt usb mp3 p</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3560,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>829.99</v>
+        <v>533.89</v>
       </c>
       <c r="G87" t="n">
-        <v>829.99</v>
+        <v>533.89</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3574,12 +3574,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CAPITAL SOUND</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000</t>
+          <t>amplificador modulo stetsom bass db 800.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3596,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>829.99</v>
+        <v>527.39</v>
       </c>
       <c r="G88" t="n">
-        <v>829.99</v>
+        <v>527.39</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3610,12 +3610,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>modulo 3000 stetsom vulcan amplificador</t>
+          <t>kit central strobo 4 farois som automoti</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3629,13 +3629,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>827.88</v>
+        <v>129.99</v>
       </c>
       <c r="G89" t="n">
-        <v>827.88</v>
+        <v>519.96</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3646,12 +3646,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ALTA ECOMMERCE 2</t>
+          <t>MEGALOJAPAULISTA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000w rms 1 canal 1 ohm cor preto</t>
+          <t>mesa de som automotiva stetsom stm1206 s</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3668,10 +3668,10 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>785.99</v>
+        <v>508.99</v>
       </c>
       <c r="G90" t="n">
-        <v>785.99</v>
+        <v>508.99</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3682,12 +3682,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CARAGOS DIST.</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>modulo potencia stetsom 3000w vulcan 2 o</t>
+          <t>mesa som stetsom stm-1206 6 canais 4 ban</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3704,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>785.99</v>
+        <v>499.66</v>
       </c>
       <c r="G91" t="n">
-        <v>785.99</v>
+        <v>499.66</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3718,12 +3718,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CARAGOS ACESS.</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000</t>
+          <t>mesa crossover automotivo stetsom stm1206 stereo 12v 6 canais 2 vias p10 xlr rca</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3740,10 +3740,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>785.99</v>
+        <v>499.43</v>
       </c>
       <c r="G92" t="n">
-        <v>785.99</v>
+        <v>499.43</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3754,12 +3754,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MEDIANEIRA ACESSÓRIOS</t>
+          <t>CAPITAL SOUND</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>modulo 3000w stetsom vulcan amplificador</t>
+          <t>amplificador stetsom ir160.2 iron 160w rms 2 canais</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3773,13 +3773,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>785.99</v>
+        <v>160.54</v>
       </c>
       <c r="G93" t="n">
-        <v>785.99</v>
+        <v>481.62</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3790,12 +3790,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOUND STORE</t>
+          <t>MEGALOJAPAULISTA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000</t>
+          <t>amplificador modulo stetsom ir 160.2 ir 160 watts 2 ohms cor preto</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>785.3099999999999</v>
+        <v>160.54</v>
       </c>
       <c r="G94" t="n">
-        <v>785.3099999999999</v>
+        <v>481.62</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3826,12 +3826,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ALTA ECOMMERCE 2</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>fonte automotiva 150a stetsom carregador</t>
+          <t>cabo rca som carro 5 metros 5m blindado stetsom prata 4mm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3845,29 +3845,29 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>783.99</v>
+        <v>68</v>
       </c>
       <c r="G95" t="n">
-        <v>783.99</v>
+        <v>476</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FONTE 150A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DELFINXLYMENE20241004133041</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom hl1200.4 120</t>
+          <t>amplificador modulo stetsom cl 1500 trio</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>777.85</v>
+        <v>227.38</v>
       </c>
       <c r="G96" t="n">
-        <v>777.85</v>
+        <v>454.76</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3898,12 +3898,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CESAR_AUGM20240920055625</t>
+          <t>MAXI SOUND BIRIGUI</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 3000 1c 3000w rms 4 ohms cor preto</t>
+          <t>modulo amplificador stetsom bass db 500.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3920,10 +3920,10 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>777</v>
+        <v>426.31</v>
       </c>
       <c r="G97" t="n">
-        <v>777</v>
+        <v>426.31</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3934,12 +3934,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ELETROKING</t>
+          <t>CK SOUND</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom iron line ir 400.4 400w rms 4 c</t>
+          <t>controle longa distancia stetsom sx1 universal vermelho</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3953,29 +3953,29 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>194</v>
+        <v>57.29</v>
       </c>
       <c r="G98" t="n">
-        <v>776</v>
+        <v>401.03</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CARAGOS DIST.</t>
+          <t>UNIVER388220190628091351</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>módulo stetsom hl1200.4 1200w rms 2 ohms</t>
+          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3989,13 +3989,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>774.24</v>
+        <v>199</v>
       </c>
       <c r="G99" t="n">
-        <v>774.24</v>
+        <v>398</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4006,12 +4006,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>modulo stetsom hl1200.4 amplificador 120</t>
+          <t>kit 1 cabo rca 5m + 2y dupla blindagem i</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4025,13 +4025,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>769.9</v>
+        <v>49.49</v>
       </c>
       <c r="G100" t="n">
-        <v>769.9</v>
+        <v>395.92</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4042,12 +4042,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CAPITAL SOUND</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>fonte carregador stetsom 200a scs display digital bivolt cor preto</t>
+          <t>controle longa distancia stetsom sx2 500</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4061,29 +4061,29 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>753.99</v>
+        <v>78.98</v>
       </c>
       <c r="G101" t="n">
-        <v>753.99</v>
+        <v>394.9</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>BITORU</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom hl1200.4 120</t>
+          <t>antena radio carro veicular am fm eletro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4097,13 +4097,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>749.55</v>
+        <v>43.71</v>
       </c>
       <c r="G102" t="n">
-        <v>749.55</v>
+        <v>393.39</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4114,12 +4114,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EDWIN_CHAN978</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom ex3000 4 ohm</t>
+          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4136,26 +4136,26 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>749.38</v>
+        <v>390.06</v>
       </c>
       <c r="G103" t="n">
-        <v>749.38</v>
+        <v>390.06</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ICOROMAA</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 universal 500m cor azul</t>
+          <t>processador de audio stetsom stx2848 dig</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4169,29 +4169,29 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>61.26</v>
+        <v>384.56</v>
       </c>
       <c r="G104" t="n">
-        <v>735.12</v>
+        <v>384.56</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ULTRATEK PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>amplificador stetsom export line ex1600e</t>
+          <t>4 strobo stetsom led rgb automotivo blue</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>729.9</v>
+        <v>127.2</v>
       </c>
       <c r="G105" t="n">
-        <v>729.9</v>
+        <v>381.6</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4222,12 +4222,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BK SOUND</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>stetsom stm 0803 stm mesa som mesa som automotivo</t>
+          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4241,29 +4241,29 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>364</v>
+        <v>379.39</v>
       </c>
       <c r="G106" t="n">
-        <v>728</v>
+        <v>379.39</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx2 light completo colorido cor vermelho</t>
+          <t>adaptador conversor stetsom st6000 aparelho som fio pra rca</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4277,29 +4277,29 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>48.31</v>
+        <v>47.16</v>
       </c>
       <c r="G107" t="n">
-        <v>724.65</v>
+        <v>377.28</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>REDNA</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>módulo de potência ir400.4 400w rms 4 ca</t>
+          <t>fonte stetsom infinite 60a amp bivolt di</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4313,29 +4313,29 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>239.99</v>
+        <v>377</v>
       </c>
       <c r="G108" t="n">
-        <v>719.97</v>
+        <v>377</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>módulo stetsom hl1200.4 1200w rms 2 ohms</t>
+          <t>stetsom stm0803 mesa equalizadora som 3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4352,10 +4352,10 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>719</v>
+        <v>370.49</v>
       </c>
       <c r="G109" t="n">
-        <v>719</v>
+        <v>370.49</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4366,12 +4366,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CARAGOS ACESS.</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom ex3000blk bl</t>
+          <t>processador áudio digital stetsom stx244</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4388,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>706.79</v>
+        <v>369</v>
       </c>
       <c r="G110" t="n">
-        <v>706.79</v>
+        <v>369</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4402,12 +4402,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GUELMAN790320240919165257</t>
+          <t>TRP Store</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom high line hl1200.4 4 canais 2 ohms bridge 4 ohms 1200w</t>
+          <t>modulo amplificador automotivo stetsom ir 280.3 digital 280w</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4421,13 +4421,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>702.21</v>
+        <v>184</v>
       </c>
       <c r="G111" t="n">
-        <v>702.21</v>
+        <v>368</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4438,12 +4438,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FORTALEZA DIST. SOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 2000w rms 1 canal 1 ohm cor preto</t>
+          <t>carregador de baterias alta e baixa volt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4460,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>702</v>
+        <v>358.55</v>
       </c>
       <c r="G112" t="n">
-        <v>702</v>
+        <v>358.55</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4474,12 +4474,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TECNOAUDIO</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>amplificador stetsom vulcan 2000.1 2 ohm</t>
+          <t>processador de áudio digital equalizador stetsom stx 2448 12v</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4496,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>701.39</v>
+        <v>356.98</v>
       </c>
       <c r="G113" t="n">
-        <v>701.39</v>
+        <v>356.98</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4510,12 +4510,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GEEK2GETHER2</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>modulo stetsom 1200 rms hl-1200.4 stereo 4 canais 1 ohm</t>
+          <t>carregador de bateria stetsom alta volta</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4532,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>701.3200000000001</v>
+        <v>354</v>
       </c>
       <c r="G114" t="n">
-        <v>701.3200000000001</v>
+        <v>354</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4546,12 +4546,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 universal vermelho</t>
+          <t>controle longa distância stetsom sx2 500 metros grafite</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4565,13 +4565,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>57.99</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>695.88</v>
+        <v>351.96</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4582,12 +4582,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>módulo amplificador digital stetsom hl12</t>
+          <t>processador stx2448 floating para rádio</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4604,10 +4604,10 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>693.6</v>
+        <v>349</v>
       </c>
       <c r="G116" t="n">
-        <v>693.6</v>
+        <v>349</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4618,12 +4618,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MEDIANEIRA ACESSÓRIOS</t>
+          <t>CARAGOS DIST.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 2 ohm black edition cor preto</t>
+          <t>fonte automotiva stetsom 50a infinite ca</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4640,14 +4640,14 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>691.91</v>
+        <v>341.99</v>
       </c>
       <c r="G117" t="n">
-        <v>691.91</v>
+        <v>341.99</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>novo processador crossover digital stets</t>
+          <t>processador de áudio digital equalizador</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G118" t="n">
-        <v>690</v>
+        <v>339</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4690,12 +4690,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EDWIN_CHAN978</t>
+          <t>ORIGINAL ECOMMERCE</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>módulo de som automotivo stetsom vulcan</t>
+          <t>mesa som automotivo stetsom stm-0602 2 c</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4712,10 +4712,10 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>684.4</v>
+        <v>327.74</v>
       </c>
       <c r="G119" t="n">
-        <v>684.4</v>
+        <v>327.74</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4726,12 +4726,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>processador de áudio digital equalizador</t>
+          <t>amplificador modulo stetsom ir 160.2 ir 160 watts 2 ohms cor preto</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4748,10 +4748,10 @@
         <v>2</v>
       </c>
       <c r="F120" t="n">
-        <v>339</v>
+        <v>160.54</v>
       </c>
       <c r="G120" t="n">
-        <v>678</v>
+        <v>321.08</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4762,12 +4762,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom ex3000 4 ohm</t>
+          <t>processador áudio digital stetsom stx244</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4784,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>674.99</v>
+        <v>319</v>
       </c>
       <c r="G121" t="n">
-        <v>674.99</v>
+        <v>319</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4798,12 +4798,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>JOLIVEIRA4233</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom ex1600eq 1600w rms 2 ohm 1k6</t>
+          <t>controle longa distância stetsom sx1 completo preto full</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4817,29 +4817,29 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>668.9</v>
+        <v>63.46</v>
       </c>
       <c r="G122" t="n">
-        <v>668.9</v>
+        <v>317.3</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EDWIN_CHAN978</t>
+          <t>AMO CARRO</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>módulo de som automotivo stetsom vulcan</t>
+          <t>fonte automotiva stetsom 40-a amperes bi</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4856,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>665.71</v>
+        <v>315.23</v>
       </c>
       <c r="G123" t="n">
-        <v>665.71</v>
+        <v>315.23</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4870,12 +4870,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>modulo stetsom 1200 vulcan 1200w rms 1ca</t>
+          <t>strobo automotivo stetsom 4 faróis rgb c</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4889,13 +4889,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>654.0599999999999</v>
+        <v>102.35</v>
       </c>
       <c r="G124" t="n">
-        <v>654.0599999999999</v>
+        <v>307.05</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>kit central strobo 4 farois som automoti</t>
+          <t>fonte automotiva stetsom infinite 40a bivolt carregador digi cor preto</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4925,29 +4925,29 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>129.99</v>
+        <v>304.78</v>
       </c>
       <c r="G125" t="n">
-        <v>649.95</v>
+        <v>304.78</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EDWIN_CHAN978</t>
+          <t>ALTA ECOMMERCE 2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>módulo stetsom vulcan 1200w rms 1 ohm fu</t>
+          <t>mesa de som automotiva stetsom stm0602 s</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4964,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>647.92</v>
+        <v>303.99</v>
       </c>
       <c r="G126" t="n">
-        <v>647.92</v>
+        <v>303.99</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4978,12 +4978,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BEST ONLINE 2</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 2000w rms 1 canal 2 ohms cor preto</t>
+          <t>processador stx2436bt stetsom crossover</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5000,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>639.99</v>
+        <v>302.57</v>
       </c>
       <c r="G127" t="n">
-        <v>639.99</v>
+        <v>302.57</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -5014,12 +5014,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>crossover automotivo stetsom 4 vias stx-</t>
+          <t>processador de áudio digital equalizado</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5033,13 +5033,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>212.39</v>
+        <v>299</v>
       </c>
       <c r="G128" t="n">
-        <v>637.17</v>
+        <v>299</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -5050,12 +5050,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CESAR_AUGM20240920055625</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000</t>
+          <t>processador stetsom stx2448 sequenciador</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5072,10 +5072,10 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="G129" t="n">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>fonte carregador stetsom 150a bivolt aut</t>
+          <t>equalizador 2448 stetsom processador lim</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5108,26 +5108,26 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>621.21</v>
+        <v>299</v>
       </c>
       <c r="G130" t="n">
-        <v>621.21</v>
+        <v>299</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>FONTE 150A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>processador de áudio digital equalizador stetsom stx 2448 12v</t>
+          <t>controle longa distância completo vermelho stetsom sx2 500m</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5141,29 +5141,29 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>308.99</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>617.98</v>
+        <v>279.3</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>TECNOAUDIO</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>fonte automotiva stetsom infinite 40a bivolt carregador digi cor preto</t>
+          <t>processador áudio stetsom stx2436 blueto</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5177,29 +5177,29 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>304.78</v>
+        <v>275.42</v>
       </c>
       <c r="G132" t="n">
-        <v>609.5599999999999</v>
+        <v>275.42</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom ex3000 black 1canal 1ohm 3000rms</t>
+          <t>controle longa distancia stetsom sx2 500 metros cd dvd cor preto</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5213,29 +5213,29 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>604.3099999999999</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>604.3099999999999</v>
+        <v>263.97</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>processador crossover de áudio digital s</t>
+          <t>módulo automotivo stetsom high line hl</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5249,13 +5249,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>299</v>
+        <v>253.9</v>
       </c>
       <c r="G134" t="n">
-        <v>598</v>
+        <v>253.9</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -5266,12 +5266,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CARAGOS ACESS.</t>
+          <t>YTRIUM SHOP</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom vulcan 1200</t>
+          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5288,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>596.59</v>
+        <v>249.99</v>
       </c>
       <c r="G135" t="n">
-        <v>596.59</v>
+        <v>249.99</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5302,12 +5302,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RODRIGUEZ_MORENO20190629195607</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>módulo digital stetsom iron line ir 400.</t>
+          <t>modulo stetsom ir 400.4 400w rms 2ohms c</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5321,13 +5321,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>198.38</v>
+        <v>246.98</v>
       </c>
       <c r="G136" t="n">
-        <v>595.14</v>
+        <v>246.98</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5338,12 +5338,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>OESTE SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>módulo potencia digital stetsom ir800.4 800 w rms 4 canais cor preto</t>
+          <t>amplificador modulo stetsom cl 1500 trio 3 canais cor preto</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5360,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>592.99</v>
+        <v>240.21</v>
       </c>
       <c r="G137" t="n">
-        <v>592.99</v>
+        <v>240.21</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5374,12 +5374,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GEEK2GETHER2</t>
+          <t>BEST ONLINE 2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 4 ohm black edition cor preto</t>
+          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5396,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>591.85</v>
+        <v>240</v>
       </c>
       <c r="G138" t="n">
-        <v>591.85</v>
+        <v>240</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5410,12 +5410,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>GEEK2GETHER2</t>
+          <t>RAMY24020241009142239</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>módulo amplificador barra stetsom ex3000 2 ohm black edition cor preto</t>
+          <t>combo cabo rca 5 stetsom + 03 rca 1 metr</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5432,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>591.85</v>
+        <v>237.25</v>
       </c>
       <c r="G139" t="n">
-        <v>591.85</v>
+        <v>237.25</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5446,12 +5446,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>conversor adaptador fio para rca anti ru</t>
+          <t>módulo stetsom ir 400.1 1 canal 400 w rm</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5465,13 +5465,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>96.79000000000001</v>
+        <v>229.9</v>
       </c>
       <c r="G140" t="n">
-        <v>580.74</v>
+        <v>229.9</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5482,12 +5482,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GRUPO AUDIOVOX</t>
+          <t>BRIDI20240223145759</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>controle stetsom sx2 longa distância universal cinza grafite</t>
+          <t>modulo de potencia iron line 400.4 rms 2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5501,29 +5501,29 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>143.99</v>
+        <v>229.9</v>
       </c>
       <c r="G141" t="n">
-        <v>575.96</v>
+        <v>229.9</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BITORU</t>
+          <t>MIG_ROSI</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>antena radio carro veicular am fm eletro</t>
+          <t>2 cabo y blindado rca 1 f + 2 m stetsom</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>43.71</v>
+        <v>109.9</v>
       </c>
       <c r="G142" t="n">
-        <v>568.23</v>
+        <v>219.8</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5554,12 +5554,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CARAGOS DIST.</t>
+          <t>RAR2966820240917222506</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom 900wrms hl-8</t>
+          <t>amplificador modulo stetsom cl 1500 trio 3 canais cor preto</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5576,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>564.99</v>
+        <v>219.38</v>
       </c>
       <c r="G143" t="n">
-        <v>564.99</v>
+        <v>219.38</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5590,12 +5590,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MEGALOJAPAULISTA</t>
+          <t>RAR2966820240917222506</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>módulo potencia digital stetsom hl 800.4</t>
+          <t>modulo amplificador stetsom cl1500 trio</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5612,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>564.99</v>
+        <v>219.38</v>
       </c>
       <c r="G144" t="n">
-        <v>564.99</v>
+        <v>219.38</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5626,12 +5626,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom digital hl80</t>
+          <t>amplificador modulo stetsom ir 400.4 ir</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5648,10 +5648,10 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>555.49</v>
+        <v>219.16</v>
       </c>
       <c r="G145" t="n">
-        <v>555.49</v>
+        <v>219.16</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5662,12 +5662,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AMO CARRO</t>
+          <t>BEST ONLINE 2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>mesa som digital stetsom stm-1003 3 ch 4</t>
+          <t>processador áudio digital stetsom blueto</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5684,10 +5684,10 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>554.86</v>
+        <v>218.5</v>
       </c>
       <c r="G146" t="n">
-        <v>554.86</v>
+        <v>218.5</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5698,12 +5698,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>mesa de som stetsom stm1003 3c multiplay</t>
+          <t>módulo amplificador stetsom iron line ir</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5720,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>549.49</v>
+        <v>216.9</v>
       </c>
       <c r="G147" t="n">
-        <v>549.49</v>
+        <v>216.9</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5734,12 +5734,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>fonte stetsom automotiva 120a com voltimetro bivolt sci cor preto</t>
+          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5756,26 +5756,26 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>543.3200000000001</v>
+        <v>212.71</v>
       </c>
       <c r="G148" t="n">
-        <v>543.3200000000001</v>
+        <v>212.71</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom hl 800.4 800w rms 2 ohm 4 canais</t>
+          <t>crossover automotivo stetsom 4 vias stx-</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5792,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>542.8</v>
+        <v>212.39</v>
       </c>
       <c r="G149" t="n">
-        <v>542.8</v>
+        <v>212.39</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5806,12 +5806,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>ALETA ONLINE</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>fonte stetsom automotiva 120a com voltimetro bivolt sci cor preto</t>
+          <t>amplificador modulo stetsom ir 400.1 ir</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5828,26 +5828,26 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>540</v>
+        <v>211.39</v>
       </c>
       <c r="G150" t="n">
-        <v>540</v>
+        <v>211.39</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TEM ONLINE</t>
+          <t>RAR5853220240917211321</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>módulo amplificador stetsom vulcan 1200w</t>
+          <t>módulo stetsom mini ir 160.2 digital 2 c</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5864,10 +5864,10 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>534.71</v>
+        <v>200.53</v>
       </c>
       <c r="G151" t="n">
-        <v>534.71</v>
+        <v>200.53</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -5878,12 +5878,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CAPITAL SOUND</t>
+          <t>AUTO EQUIP 2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>mesa stm1003 3 canais sd fm bt usb controle stetsom sx full 12v</t>
+          <t>cabo automotivo som rca 1 metro 1m stets</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5897,29 +5897,29 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>533.89</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>533.89</v>
+        <v>197.7</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AMO CARRO</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mesa som stetsom stm-1003 3 ch 12v contr</t>
+          <t>kit instalação cabo rca blindado stetsom</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5936,10 +5936,10 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>528.54</v>
+        <v>197.4</v>
       </c>
       <c r="G153" t="n">
-        <v>528.54</v>
+        <v>197.4</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5950,12 +5950,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FORTALEZA DIST. SOM</t>
+          <t>ELETROKING</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom db800.1 2 ohms grave poderoso cor preto</t>
+          <t>módulo amplificador stetsom iron line ir 400.4 400w rms 4 c</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5972,10 +5972,10 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>515</v>
+        <v>194</v>
       </c>
       <c r="G154" t="n">
-        <v>515</v>
+        <v>194</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5986,12 +5986,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>REDNA</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>mesa stetsom stm1206 6 canais 12v</t>
+          <t>controle de longa distancia som automoti</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6005,29 +6005,29 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>509</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>509</v>
+        <v>191.98</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>AUTO EQUIP 2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>módulo stetsom iron line ir 400.4 4 cana</t>
+          <t>controle longa distância stetsom sx2 500</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6044,26 +6044,26 @@
         <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>251.94</v>
+        <v>94.95</v>
       </c>
       <c r="G156" t="n">
-        <v>503.88</v>
+        <v>189.9</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CARAGOS DIST.</t>
+          <t>CK SOUND</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>mais vendido mesa de som automotivo 12v</t>
+          <t>controle longa distancia stetsom sx1 universal amarelo</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6077,29 +6077,29 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F157" t="n">
-        <v>500.64</v>
+        <v>62.71</v>
       </c>
       <c r="G157" t="n">
-        <v>500.64</v>
+        <v>188.13</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EMANUELABARCA20062006</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>mesa crossover automotivo stetsom stm1206 stereo 12v 6 canais 2 vias p10 xlr rca</t>
+          <t>10 cabo rca automotivo blindado stetsom</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6116,10 +6116,10 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>499</v>
+        <v>178.77</v>
       </c>
       <c r="G158" t="n">
-        <v>499</v>
+        <v>178.77</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -6130,12 +6130,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NS ECOMMERCE</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mesa de som automotivo stetsom stm1206 6 canais 4 eq band</t>
+          <t>controle longa distância stetsom sx1 uni</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6149,29 +6149,29 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>457.6</v>
+        <v>59.49</v>
       </c>
       <c r="G159" t="n">
-        <v>457.6</v>
+        <v>178.47</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>COMPRE SEU SOM 2015</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>novo play stetsom hl400.4 dsplay hl 400</t>
+          <t>controle longa distância stetsom sx2 500 metros cores cor amarelo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6185,29 +6185,29 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>450</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>450</v>
+        <v>175.98</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>kit cabo rca blindado stetsom 5 metros +</t>
+          <t>controle longa distância stetsom sx2 500 metros cores cor azul</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6221,29 +6221,29 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>149.49</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>448.47</v>
+        <v>175.98</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BEST ONLINE 2</t>
+          <t>ICOROMAA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
+          <t>amplificador stetsom ir160.2 iron 160w rms 2 canais</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>218.5</v>
+        <v>173.75</v>
       </c>
       <c r="G162" t="n">
-        <v>437</v>
+        <v>173.75</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -6274,12 +6274,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
+          <t>controle longa distancia stetsom sx1 uni</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6293,29 +6293,29 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F163" t="n">
-        <v>212.71</v>
+        <v>57.9</v>
       </c>
       <c r="G163" t="n">
-        <v>425.42</v>
+        <v>173.7</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ELETROKING</t>
+          <t>ORIGINAL ECOMMERCE</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>modulo amplificador stetsom ir400.4 - 40</t>
+          <t>par 2 cabo stetsom 5 metros blindado dup</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>208.2</v>
+        <v>168.89</v>
       </c>
       <c r="G164" t="n">
-        <v>416.4</v>
+        <v>168.89</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -6346,12 +6346,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>THIESCA10020240829200849</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>play stetsom hl400.4 dsplay hl 400 x4 100w rms usb bob cor dsp play 400x4</t>
+          <t>kit 2 cabo y 2m 1f + cabo rca blindado p</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6368,10 +6368,10 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>405.9</v>
+        <v>158.99</v>
       </c>
       <c r="G165" t="n">
-        <v>405.9</v>
+        <v>158.99</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -6382,12 +6382,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MEDIANEIRA ACESSÓRIOS</t>
+          <t>GRUPO AUDIOVOX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>amplificador mono stetsom db500.1 4ohms</t>
+          <t>controle stetsom sx2 longa distância universal cinza grafite</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6404,26 +6404,26 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>398.99</v>
+        <v>152.99</v>
       </c>
       <c r="G166" t="n">
-        <v>398.99</v>
+        <v>152.99</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NANDIN SOUND</t>
+          <t>AUTO EQUIP 2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>display digital stetsom mini vt hv volti</t>
+          <t>voltimetro expert banda vex 1 digital ve</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>64.98999999999999</v>
+        <v>49.9</v>
       </c>
       <c r="G167" t="n">
-        <v>389.94</v>
+        <v>149.7</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -6454,12 +6454,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>crossover processador stx-2848 stetsom e</t>
+          <t>controle longa distância stetsom univers</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6473,29 +6473,29 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
-        <v>388.55</v>
+        <v>48.31</v>
       </c>
       <c r="G168" t="n">
-        <v>388.55</v>
+        <v>144.93</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CARAGOS ACESS.</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>processador de áudio digital stetsom stx-2848 mais vendido 12v</t>
+          <t>03 cabo automotivo som rca 1 metro 1m st</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6512,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>387.99</v>
+        <v>139.9</v>
       </c>
       <c r="G169" t="n">
-        <v>387.99</v>
+        <v>139.9</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6526,12 +6526,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ALETA ONLINE</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>controle longa distância stetsom sx1 completo preto full</t>
+          <t>2 controle alarme stetsom fks sistec wr</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6545,29 +6545,29 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F170" t="n">
-        <v>63.46</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>380.76</v>
+        <v>138.98</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ALETA ONLINE</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 universal 500m cor azul</t>
+          <t>kit cabo rca blindado stetsom 5 metros +</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6581,29 +6581,29 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>63.46</v>
+        <v>134.54</v>
       </c>
       <c r="G171" t="n">
-        <v>380.76</v>
+        <v>134.54</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AUTO EQUIP 2</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>controle longa distância stetsom sx2 500</t>
+          <t>voltimetro mini stetsom vt digital autom</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6617,29 +6617,29 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>94.95</v>
+        <v>44.79</v>
       </c>
       <c r="G172" t="n">
-        <v>379.8</v>
+        <v>134.37</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BEST ONLINE 2</t>
+          <t>AUTO EQUIP 2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
+          <t>controle remoto longa distância stetsom</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6653,29 +6653,29 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>189.63</v>
+        <v>131.91</v>
       </c>
       <c r="G173" t="n">
-        <v>379.26</v>
+        <v>131.91</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>fonte automotiva infinite 60a stetsom voltímetro bivolt 12v</t>
+          <t>controle longa distância stetsom sx univ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6689,29 +6689,29 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>377</v>
+        <v>65.45</v>
       </c>
       <c r="G174" t="n">
-        <v>377</v>
+        <v>130.9</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>AUTO EQUIP 2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>processador crossover stx2448 floating e</t>
+          <t>controle longa distância stetsom sx2 azu</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6728,26 +6728,26 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>369</v>
+        <v>129.9</v>
       </c>
       <c r="G175" t="n">
-        <v>369</v>
+        <v>129.9</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>GRUPO AUDIOVOX</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>processador crossover stx2448 floating e</t>
+          <t>controle remoto longa distância universa</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6764,26 +6764,26 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="G176" t="n">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AMO CARRO</t>
+          <t>CAPITAL SOUND</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mesa som stm-0803  stetsom 3 canais 4 ba</t>
+          <t>kit central som automotivo com leds luz</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6800,10 +6800,10 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>365.86</v>
+        <v>117.47</v>
       </c>
       <c r="G177" t="n">
-        <v>365.86</v>
+        <v>117.47</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -6814,12 +6814,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GRUPO AUDIOVOX</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>controle remoto longa distância universa</t>
+          <t>controle longa distância stetsom sx1 completo preto full</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
-        <v>120</v>
+        <v>57.99</v>
       </c>
       <c r="G178" t="n">
-        <v>360</v>
+        <v>115.98</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -6850,12 +6850,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AMO MIX SC</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>mesa som stetsom stm-0803 3 canais aux m</t>
+          <t>voltímetro mini stetsom medidor de bater</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>359.87</v>
+        <v>56.6</v>
       </c>
       <c r="G179" t="n">
-        <v>359.87</v>
+        <v>113.2</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -6886,12 +6886,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>controle longa distância stetsom sx2 500 metros cores cor azul</t>
+          <t>kit de fiação instalação som módulo stet</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6905,29 +6905,29 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F180" t="n">
-        <v>87.98999999999999</v>
+        <v>54.49</v>
       </c>
       <c r="G180" t="n">
-        <v>351.96</v>
+        <v>108.98</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MEDIANEIRA ACESSÓRIOS</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>stm0803  mesa de som automotivo 3 canais</t>
+          <t>controle longa distância sx2 stetsom 500</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6944,26 +6944,26 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>350.54</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="G181" t="n">
-        <v>350.54</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>OESTE SOM</t>
+          <t>ROOLIVEIRA_DE_ARAUJO20240604222431</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>processador de audio stetsom equalizador</t>
+          <t>controle longa distância 500 metro stets</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6980,26 +6980,26 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>349.98</v>
+        <v>96.31</v>
       </c>
       <c r="G182" t="n">
-        <v>349.98</v>
+        <v>96.31</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>novo processador crossover digital stets</t>
+          <t>controle longa distancia stetsom sx2 500</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7016,26 +7016,26 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="G183" t="n">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>UNIVER283320190628090350</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>processador stx2448 floating para rádio</t>
+          <t>cabo automotivo som rca 1m stetsom blind</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7049,13 +7049,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F184" t="n">
-        <v>349</v>
+        <v>47.98</v>
       </c>
       <c r="G184" t="n">
-        <v>349</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -7066,12 +7066,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>EDWIN_CHAN978</t>
+          <t>TELSOM SP</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>mesa de som automotiva stetsom stm0803 s</t>
+          <t>cabo rca som carro 5 metros blindado ste</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7088,10 +7088,10 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>343.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="G185" t="n">
-        <v>343.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -7102,12 +7102,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 uni</t>
+          <t>controle longa distancia stetsom sx2 500</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7121,13 +7121,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>67.5</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>337.5</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -7138,12 +7138,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TODAEPOCA-LENCERIA20241008232445</t>
+          <t>TECNOAUDIO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>cabo rca 1 metro 1m 1 m blindado stetsom</t>
+          <t>controle de longa distacia de som alcanc</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7157,29 +7157,29 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G187" t="n">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORIGINAL ECOMMERCE</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>mesa som automotivo stetsom stm-0602 2 c</t>
+          <t>cabo rca silicone stetsom 1mt no blister</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7193,13 +7193,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F188" t="n">
-        <v>327.74</v>
+        <v>28</v>
       </c>
       <c r="G188" t="n">
-        <v>327.74</v>
+        <v>84</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -7210,12 +7210,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>OESTE SOM</t>
+          <t>BITORU</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>processador som crossover de áudio digit</t>
+          <t>antena de carro rádio caminhão parabrisa</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" t="n">
-        <v>326.58</v>
+        <v>41.75</v>
       </c>
       <c r="G189" t="n">
-        <v>326.58</v>
+        <v>83.5</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
@@ -7246,12 +7246,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GUELMAN790320240919165257</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>fonte automotiva digital stetsom 50a amperes carregador cor preto</t>
+          <t>par cabo y rca stetsom 2 macho 1 fêmea v</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7268,26 +7268,26 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>324.85</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="G190" t="n">
-        <v>324.85</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>FONTE 50A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CAPITAL SOUND</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>fonte automotiva digital stetsom 50a amperes carregador cor preto</t>
+          <t>controle longa distância stetsom sx2 500 metros cores cor branco</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7304,26 +7304,26 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>323.99</v>
+        <v>78.98</v>
       </c>
       <c r="G191" t="n">
-        <v>323.99</v>
+        <v>78.98</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>FONTE 50A</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CAPITAL SOUND</t>
+          <t>GRUPO AUDIOVOX</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>amplificador stetsom ir160.2 iron 160w rms 2 canais</t>
+          <t>mini voltímetro digital som automotivo m</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7337,13 +7337,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>160.54</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="G192" t="n">
-        <v>321.08</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -7354,12 +7354,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>processador de audio stetsom stx2448 com</t>
+          <t>controle longa distancia alcance 500m st</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7376,26 +7376,26 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>319.9</v>
+        <v>68.33</v>
       </c>
       <c r="G193" t="n">
-        <v>319.9</v>
+        <v>68.33</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>processador áudio digital stetsom stx244</t>
+          <t>controle longa distância stetsom universal sx 1500 metros</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7412,14 +7412,14 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>319</v>
+        <v>66.2</v>
       </c>
       <c r="G194" t="n">
-        <v>319</v>
+        <v>66.2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 universal amarelo</t>
+          <t>controle longa distancia stetsom sx1 universal 500m cor azul</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7445,13 +7445,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>63.46</v>
       </c>
       <c r="G195" t="n">
-        <v>317.3</v>
+        <v>63.46</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -7462,12 +7462,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RAR3645820240917203250</t>
+          <t>CK SOUND</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>processador de áudio digital equalizador</t>
+          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7484,26 +7484,26 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>316.35</v>
+        <v>62.23</v>
       </c>
       <c r="G196" t="n">
-        <v>316.35</v>
+        <v>62.23</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>GRUPO AUDIOVOX</t>
+          <t>ICOROMAA</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>kit central som automotivo com leds luz</t>
+          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7517,29 +7517,29 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>155.99</v>
+        <v>61.26</v>
       </c>
       <c r="G197" t="n">
-        <v>311.98</v>
+        <v>61.26</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RADICALSOM 4</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>processador de audio stetsom stx2448 com</t>
+          <t>antena automotiva interna stetsom am fm</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7553,13 +7553,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>309</v>
+        <v>29.99</v>
       </c>
       <c r="G198" t="n">
-        <v>309</v>
+        <v>59.98</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>processador áudio digital stetsom stx 24</t>
+          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7592,26 +7592,26 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>309</v>
+        <v>57.9</v>
       </c>
       <c r="G199" t="n">
-        <v>309</v>
+        <v>57.9</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>COMPRE SEU SOM 2015</t>
+          <t>CARAGOS ACESS.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>mesa equalizadora stetsom stm0602 stereo</t>
+          <t>cabo rca blindado stetsom 1m</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7628,10 +7628,10 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>299.99</v>
+        <v>55.99</v>
       </c>
       <c r="G200" t="n">
-        <v>299.99</v>
+        <v>55.99</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -7642,12 +7642,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AMO CARRO</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>fonte automotiva stetsom 40a infinite ca</t>
+          <t>conversor adaptador de fios para rca ste</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7664,26 +7664,26 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>299.48</v>
+        <v>53.49</v>
       </c>
       <c r="G201" t="n">
-        <v>299.48</v>
+        <v>53.49</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AMO CARRO</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>fonte automotiva stetsom infinite 40a bivolt carregador digi cor preto</t>
+          <t>kit fiação instalação modulo 500w tl1500</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7700,26 +7700,26 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>299.48</v>
+        <v>53.49</v>
       </c>
       <c r="G202" t="n">
-        <v>299.48</v>
+        <v>53.49</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>ORIGINAL ECOMMERCE</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>processador stetsom stx-2448 radical som</t>
+          <t>adaptador conversor stetsom st6000 apare</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7736,10 +7736,10 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>299</v>
+        <v>51.29</v>
       </c>
       <c r="G203" t="n">
-        <v>299</v>
+        <v>51.29</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -7750,12 +7750,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>VIANX DIST</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>fonte automotiva digital stetsom infinit</t>
+          <t>voltimetro compacto stetsom mini vt digi</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7772,10 +7772,10 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>297.73</v>
+        <v>49.89</v>
       </c>
       <c r="G204" t="n">
-        <v>297.73</v>
+        <v>49.89</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -7786,12 +7786,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>REDNA</t>
+          <t>AUTO EQUIP 2</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>kit 1 módulo amplificador stetsom hl400.4 400w 4 canais bridge high line + 2 cabos rca injetado 1 metro series200</t>
+          <t>cabo rca y stetsom 1 macho + 2 fêmeas blindado flexivel</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>290.7</v>
+        <v>24.9</v>
       </c>
       <c r="G205" t="n">
-        <v>290.7</v>
+        <v>49.8</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7822,12 +7822,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>OESTE SOM</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>módulo stetsom iron line ir 400.4 4 cana</t>
+          <t>voltímetro mini stetsom medidor de bater</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7844,10 +7844,10 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>279.9</v>
+        <v>48.78</v>
       </c>
       <c r="G206" t="n">
-        <v>279.9</v>
+        <v>48.78</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -7858,12 +7858,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>YTRIUM SHOP</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>processador de áudio digital stetsom stx2436bt bluetooth</t>
+          <t>voltimetro compacto stetsom mini vt digi</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7880,10 +7880,10 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>278.07</v>
+        <v>48.54</v>
       </c>
       <c r="G207" t="n">
-        <v>278.07</v>
+        <v>48.54</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -7894,12 +7894,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>CAPITAL SOUND</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>processador crossover stetsom stx2436bt</t>
+          <t>mini voltimetro digital stetsom vt azul</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7916,10 +7916,10 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>269.1</v>
+        <v>47.99</v>
       </c>
       <c r="G208" t="n">
-        <v>269.1</v>
+        <v>47.99</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7930,12 +7930,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CAPITAL SOUND</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>filtro anti ruido stetsom supressor rca</t>
+          <t>cabo rca automotivo injetado stetsom 5 metros bronze</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7952,10 +7952,10 @@
         <v>2</v>
       </c>
       <c r="F209" t="n">
-        <v>126.25</v>
+        <v>23.05</v>
       </c>
       <c r="G209" t="n">
-        <v>252.5</v>
+        <v>46.1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7966,12 +7966,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>QUALITY SP 3</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>processador stx2436bt stetsom crossover automotivo bluetooth 12v</t>
+          <t>voltimetro compacto stetsom mini vt digi</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7988,10 +7988,10 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>252.07</v>
+        <v>45.26</v>
       </c>
       <c r="G210" t="n">
-        <v>252.07</v>
+        <v>45.26</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -8002,12 +8002,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>crossover stx84 stetsom 4 vias mono ou s</t>
+          <t>controle alarme stetsom com presença fks</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8024,10 +8024,10 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>249.96</v>
+        <v>42.39</v>
       </c>
       <c r="G211" t="n">
-        <v>249.96</v>
+        <v>42.39</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -8038,12 +8038,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>OESTE SOM</t>
+          <t>SUBGRAVE</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>amplificador modulo stetsom cl 1500 trio 3 canais cor preto</t>
+          <t>cabo coaxial rca stetsom 1 metro banhado a ouro</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8057,13 +8057,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212" t="n">
-        <v>246.72</v>
+        <v>21.1</v>
       </c>
       <c r="G212" t="n">
-        <v>246.72</v>
+        <v>42.2</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -8074,12 +8074,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ICOROMAA</t>
+          <t>TOP LINE SOUND</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
+          <t>antena carro universal stetsom st900 ana</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8093,29 +8093,29 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>61.26</v>
+        <v>41.75</v>
       </c>
       <c r="G213" t="n">
-        <v>245.04</v>
+        <v>41.75</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SUBGRAVE</t>
+          <t>RAR3426120240917163107</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>controle longa distancia stetsom rádio pioneer positron kit cor grafite</t>
+          <t>antena am fm veicular interna amplificad</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8129,29 +8129,29 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>59.48</v>
+        <v>40.75</v>
       </c>
       <c r="G214" t="n">
-        <v>237.92</v>
+        <v>40.75</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>CONTROLE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>crossover automotivo stetsom 4 vias stx-84 mesa regulagem 12v</t>
+          <t>cabo rca y 2 macho 1 fêmea stetsom</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8168,10 +8168,10 @@
         <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>231.99</v>
+        <v>22.9</v>
       </c>
       <c r="G215" t="n">
-        <v>231.99</v>
+        <v>22.9</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -8182,12 +8182,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ALETA ONLINE</t>
+          <t>LCDONATO</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>kit central strobo 4 farois som automoti</t>
+          <t>conector chicote fio cabo rabicho módulo e potencia</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8201,3039 +8201,15 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>115.26</v>
+        <v>13.88</v>
       </c>
       <c r="G216" t="n">
-        <v>230.52</v>
+        <v>13.88</v>
       </c>
       <c r="H216" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>CAPITAL SOUND</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>módulo amplificador stetsom ir 400 wrms x4 mais vendido</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>1</v>
-      </c>
-      <c r="F217" t="n">
-        <v>228.94</v>
-      </c>
-      <c r="G217" t="n">
-        <v>228.94</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>BEST ONLINE 2</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>processador áudio digital stetsom blueto</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>1</v>
-      </c>
-      <c r="F218" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="G218" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>RAMY24020241009142239</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>combo cabo rca 5 stetsom + 03 rca 1 metr</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>217.11</v>
-      </c>
-      <c r="G219" t="n">
-        <v>217.11</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>EXTREME ÁUDIO</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>amplificador modulo digital ir400.4 stet</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>212.71</v>
-      </c>
-      <c r="G220" t="n">
-        <v>212.71</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>WE MARKET</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>módulo amplificador stetsom hl400.4 400w potência 4 canais bridge high line</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>211.85</v>
-      </c>
-      <c r="G221" t="n">
-        <v>211.85</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>ALETA ONLINE</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>módulo amplificador stetsom ironline ir400.1 400w rms 2 ohms</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" t="n">
-        <v>211.39</v>
-      </c>
-      <c r="G222" t="n">
-        <v>211.39</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>ELCANGRY8</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>modulo para alto falante de porta 160 wa</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>202</v>
-      </c>
-      <c r="G223" t="n">
-        <v>202</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>kit 05 cabos rca stetsom 1 metro banhado</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>2</v>
-      </c>
-      <c r="F224" t="n">
-        <v>99.86</v>
-      </c>
-      <c r="G224" t="n">
-        <v>199.72</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>GILBEFERNAND20240919163216</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>199</v>
-      </c>
-      <c r="G225" t="n">
-        <v>199</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>OESTE SOM</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom universal sx 1500 metros</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>3</v>
-      </c>
-      <c r="F226" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="G226" t="n">
-        <v>198.6</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>RODRIGUEZ_MORENO20190629195607</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>198.38</v>
-      </c>
-      <c r="G227" t="n">
-        <v>198.38</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>kit 1 cabo rca 5m + 2y dupla blindagem i</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>4</v>
-      </c>
-      <c r="F228" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="G228" t="n">
-        <v>197.96</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>WE MARKET</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx univ</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>3</v>
-      </c>
-      <c r="F229" t="n">
-        <v>65.45</v>
-      </c>
-      <c r="G229" t="n">
-        <v>196.35</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>GEEK2GETHER2</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>194.02</v>
-      </c>
-      <c r="G230" t="n">
-        <v>194.02</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>ELETROKING</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>modulo de potencia iron line 400.4 rms 2ohms 4 canais stetsom cor preto</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" t="n">
-        <v>194</v>
-      </c>
-      <c r="G231" t="n">
-        <v>194</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>CAPITAL SOUND</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>alarme dedicado stetsom moto honda prese</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>1</v>
-      </c>
-      <c r="F232" t="n">
-        <v>193.43</v>
-      </c>
-      <c r="G232" t="n">
-        <v>193.43</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom univers</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>4</v>
-      </c>
-      <c r="F233" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="G233" t="n">
-        <v>193.24</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>ALETA ONLINE</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 uni</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>3</v>
-      </c>
-      <c r="F234" t="n">
-        <v>63.46</v>
-      </c>
-      <c r="G234" t="n">
-        <v>190.38</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>TUNDE_80020241003164706</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>antena radio carro veicular am fm eletro</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>5</v>
-      </c>
-      <c r="F235" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="G235" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>TRP Store</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx1 uni</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>3</v>
-      </c>
-      <c r="F236" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="G236" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx1 uni</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>3</v>
-      </c>
-      <c r="F237" t="n">
-        <v>57.49</v>
-      </c>
-      <c r="G237" t="n">
-        <v>172.47</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>TEM ONLINE</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>modulo amplificador stetsom ir280.4 4 canais 2ohms ir280</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>1</v>
-      </c>
-      <c r="F238" t="n">
-        <v>170.65</v>
-      </c>
-      <c r="G238" t="n">
-        <v>170.65</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>CARAGOS DIST.</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>amplificador modulo stetsom ir 160.2 ir 160 watts 2 ohms cor preto</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>170.04</v>
-      </c>
-      <c r="G239" t="n">
-        <v>170.04</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>voltímetro mini stetsom medidor de bater</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>3</v>
-      </c>
-      <c r="F240" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="G240" t="n">
-        <v>169.8</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>FORTALEZA DIST. SOM</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>modulo amplificador stetsom ir160 2 cana</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>168</v>
-      </c>
-      <c r="G241" t="n">
-        <v>168</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>BITORU</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>antena de carro rádio caminhão parabrisa</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>4</v>
-      </c>
-      <c r="F242" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="G242" t="n">
-        <v>167</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>CARAGOS ACESS.</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>kit 2 cabo y 2m 1f + cabo rca blindado p</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>158.99</v>
-      </c>
-      <c r="G243" t="n">
-        <v>158.99</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>EXTREME ÁUDIO</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx2 500 metros cd dvd cor preto</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>2</v>
-      </c>
-      <c r="F244" t="n">
-        <v>78.98</v>
-      </c>
-      <c r="G244" t="n">
-        <v>157.96</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>OESTE SOM</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom + rádio</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>1</v>
-      </c>
-      <c r="F245" t="n">
-        <v>154.98</v>
-      </c>
-      <c r="G245" t="n">
-        <v>154.98</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>OESTE SOM</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>kit com 3 cabos rca stetsom 1 metro blin</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>1</v>
-      </c>
-      <c r="F246" t="n">
-        <v>151.89</v>
-      </c>
-      <c r="G246" t="n">
-        <v>151.89</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>voltimetro compacto stetsom mini vt digi</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>3</v>
-      </c>
-      <c r="F247" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="G247" t="n">
-        <v>149.67</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>ALTA ECOMMERCE 2</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx2 500</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>2</v>
-      </c>
-      <c r="F248" t="n">
-        <v>74.79000000000001</v>
-      </c>
-      <c r="G248" t="n">
-        <v>149.58</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>OESTE SOM</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom + rádio</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>146.21</v>
-      </c>
-      <c r="G249" t="n">
-        <v>146.21</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>GRUPO AUDIOVOX</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>mini voltímetro digital som automotivo m</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>2</v>
-      </c>
-      <c r="F250" t="n">
-        <v>69.98999999999999</v>
-      </c>
-      <c r="G250" t="n">
-        <v>139.98</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>03 cabo automotivo som rca 1 metro 1m st</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="G251" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>CAPITAL SOUND</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>kit controle longa distância stetsom 500</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="G252" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>WE MARKET</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx1 500</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>2</v>
-      </c>
-      <c r="F253" t="n">
-        <v>67.03</v>
-      </c>
-      <c r="G253" t="n">
-        <v>134.06</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>CK SOUND</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 universal amarelo</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>2</v>
-      </c>
-      <c r="F254" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="G254" t="n">
-        <v>132.98</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>AMO MIX SC</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>filtro anti ruído stetsom stf-2 rca cd d</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>1</v>
-      </c>
-      <c r="F255" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="G255" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>CAPITAL SOUND</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>voltímetro digital stetsom vt3 - protege</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>1</v>
-      </c>
-      <c r="F256" t="n">
-        <v>129.89</v>
-      </c>
-      <c r="G256" t="n">
-        <v>129.89</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>CABESOM RJ</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>adaptador conversor remoto rca e filtro</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="G257" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>ALETA ONLINE</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>filtro anti ruído supressor stetsom rca</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" t="n">
-        <v>123.27</v>
-      </c>
-      <c r="G258" t="n">
-        <v>123.27</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>CARAGOS ACESS.</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>voltímetro digital moderno vt3 melhor pr</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>1</v>
-      </c>
-      <c r="F259" t="n">
-        <v>122.99</v>
-      </c>
-      <c r="G259" t="n">
-        <v>122.99</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>LOJA MULTIVAREJO</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>kit controle longa distância stetsom sx1 + voltimetro minivt cor grafite</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>1</v>
-      </c>
-      <c r="F260" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="G260" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>ELITE AUTOMOTIVA</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>antena radio automotivo am fm stetsom in</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>3</v>
-      </c>
-      <c r="F261" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G261" t="n">
-        <v>119.7</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>filtro anti ruido stetsom p/ dvd cd play</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>119.49</v>
-      </c>
-      <c r="G262" t="n">
-        <v>119.49</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>AUTO EQUIP 2</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>controle longa distância azul + voltímet</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>1</v>
-      </c>
-      <c r="F263" t="n">
-        <v>118.9</v>
-      </c>
-      <c r="G263" t="n">
-        <v>118.9</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>2</v>
-      </c>
-      <c r="F264" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="G264" t="n">
-        <v>115.8</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>ELETROKING</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>kit 04 antenas interna stetsom para rádi</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>1</v>
-      </c>
-      <c r="F265" t="n">
-        <v>113.41</v>
-      </c>
-      <c r="G265" t="n">
-        <v>113.41</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>CARAGOS ACESS.</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>conversor adaptador de fios st6000 para</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>2</v>
-      </c>
-      <c r="F266" t="n">
-        <v>54.14</v>
-      </c>
-      <c r="G266" t="n">
-        <v>108.28</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>cabo rca y stetsom 2m 1f injetado silico</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>6</v>
-      </c>
-      <c r="F267" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G267" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>REDE AUTOPARTS</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>strobo automotivo stetsom 4 faróis rgb c</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>1</v>
-      </c>
-      <c r="F268" t="n">
-        <v>102.35</v>
-      </c>
-      <c r="G268" t="n">
-        <v>102.35</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>CARAGOS ACESS.</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>par cabo y rca stetsom 2 macho 1 fêmea l</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>1</v>
-      </c>
-      <c r="F269" t="n">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="G269" t="n">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>AUTO EQUIP 2</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>voltimetro expert banda vex 1 digital ve</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>2</v>
-      </c>
-      <c r="F270" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G270" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>AMO CARRO</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx2 500 metros grafite</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>1</v>
-      </c>
-      <c r="F271" t="n">
-        <v>92.05</v>
-      </c>
-      <c r="G271" t="n">
-        <v>92.05</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>AMO CARRO</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx2 500 metros cores cor branco</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>1</v>
-      </c>
-      <c r="F272" t="n">
-        <v>92.05</v>
-      </c>
-      <c r="G272" t="n">
-        <v>92.05</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>COMPRE SEU SOM 2015</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx2 500</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>1</v>
-      </c>
-      <c r="F273" t="n">
-        <v>89</v>
-      </c>
-      <c r="G273" t="n">
-        <v>89</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>TELSOM SP</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>cabo y stetsom 1 f/ 2m tripla blindagem banhado níquel blindado</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>2</v>
-      </c>
-      <c r="F274" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="G274" t="n">
-        <v>79</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>CARAGOS ACESS.</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>kit 1 cabo rca 5 metros stetsom + 3 rca</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>1</v>
-      </c>
-      <c r="F275" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="G275" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>MEGALOJAPAULISTA</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>kit 1 cabo rca 5 metros stetsom + 3 rca</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>1</v>
-      </c>
-      <c r="F276" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="G276" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>EXTREME ÁUDIO</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx2 500 metros cores cor branco</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E277" t="n">
-        <v>1</v>
-      </c>
-      <c r="F277" t="n">
-        <v>78.98</v>
-      </c>
-      <c r="G277" t="n">
-        <v>78.98</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>MUNDO ELETROSS</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx1 completo preto full</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>1</v>
-      </c>
-      <c r="F278" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="G278" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>ALETA ONLINE</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 universal vermelho</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E279" t="n">
-        <v>1</v>
-      </c>
-      <c r="F279" t="n">
-        <v>63.46</v>
-      </c>
-      <c r="G279" t="n">
-        <v>63.46</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>ALETA ONLINE</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
-        <v>1</v>
-      </c>
-      <c r="F280" t="n">
-        <v>63.46</v>
-      </c>
-      <c r="G280" t="n">
-        <v>63.46</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>CK SOUND</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 completo universal cor grafite</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>1</v>
-      </c>
-      <c r="F281" t="n">
-        <v>62.23</v>
-      </c>
-      <c r="G281" t="n">
-        <v>62.23</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>ICOROMAA</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx2 lig</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>1</v>
-      </c>
-      <c r="F282" t="n">
-        <v>61.26</v>
-      </c>
-      <c r="G282" t="n">
-        <v>61.26</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx1 uni</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>1</v>
-      </c>
-      <c r="F283" t="n">
-        <v>59.49</v>
-      </c>
-      <c r="G283" t="n">
-        <v>59.49</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx1 uni</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>1</v>
-      </c>
-      <c r="F284" t="n">
-        <v>59.49</v>
-      </c>
-      <c r="G284" t="n">
-        <v>59.49</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>CK SOUND</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>controle longa distancia stetsom sx1 universal 500m cor azul</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>1</v>
-      </c>
-      <c r="F285" t="n">
-        <v>58.14</v>
-      </c>
-      <c r="G285" t="n">
-        <v>58.14</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>kit de fiação instalação som módulo stet</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>1</v>
-      </c>
-      <c r="F286" t="n">
-        <v>54.49</v>
-      </c>
-      <c r="G286" t="n">
-        <v>54.49</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>kit fiação instalação modulo 500w tl1500</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>1</v>
-      </c>
-      <c r="F287" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="G287" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>conversor adaptador de fios para rca ste</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>1</v>
-      </c>
-      <c r="F288" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="G288" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>controle longa distância stetsom sx universal 200m branco</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>1</v>
-      </c>
-      <c r="F289" t="n">
-        <v>51.83</v>
-      </c>
-      <c r="G289" t="n">
-        <v>51.83</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>UNIVER283320190628090350</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>cabo automotivo som rca 1m stetsom blind</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E290" t="n">
-        <v>1</v>
-      </c>
-      <c r="F290" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="G290" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>AMO CARRO</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>cabo veicular rca bronze 2 vias injetado</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E291" t="n">
-        <v>2</v>
-      </c>
-      <c r="F291" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="G291" t="n">
-        <v>48.58</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>voltimetro compacto stetsom mini vt digi</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>1</v>
-      </c>
-      <c r="F292" t="n">
-        <v>48.54</v>
-      </c>
-      <c r="G292" t="n">
-        <v>48.54</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>TODAEPOCA-LENCERIA20241008232445</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>cabo y blindado rca 1 f + 2 m stetsom 1f</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>1</v>
-      </c>
-      <c r="F293" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="G293" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>RIVALDOCABELIM20241017161850</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>cabo rca stetsom blindado y invert. 1 ma</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>1</v>
-      </c>
-      <c r="F294" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="G294" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>CK SOUND</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>adaptador conversor stetsom st6000 aparelho som fio pra rca</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>1</v>
-      </c>
-      <c r="F295" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="G295" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>AUTO EQUIP 2</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>cabo rca automotivo injetado stetsom 5 metros bronze</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>1</v>
-      </c>
-      <c r="F296" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G296" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>LOJA TELSOM</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>cabo y stetsom 1 f/ 2m tripla blindagem banhado níquel blindado</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>1</v>
-      </c>
-      <c r="F297" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="G297" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>CAPITAL SOUND</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>cabo rca 1 metro amplificador rádio inje</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>1</v>
-      </c>
-      <c r="F298" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="G298" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>SUBGRAVE</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>cabo rca automotivo injetado stetsom 5 metros bronze</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>1</v>
-      </c>
-      <c r="F299" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="G299" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>LCDONATO</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>conector chicote fio cabo rabicho módulo e potencia</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>STETSOM</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>1</v>
-      </c>
-      <c r="F300" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="G300" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="H300" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
